--- a/cis-util/data/subjects.xlsx
+++ b/cis-util/data/subjects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18680" windowHeight="5950"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -22,21 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="44">
   <si>
     <t>ENGINEERING MATHEMATICS – III</t>
   </si>
   <si>
     <t>10 MAT 31</t>
-  </si>
-  <si>
-    <t>IA Marks</t>
-  </si>
-  <si>
-    <t>Exam Hrs</t>
-  </si>
-  <si>
-    <t>Hrs/Week</t>
   </si>
   <si>
     <t>A</t>
@@ -165,18 +156,6 @@
   </si>
   <si>
     <t>10MAT41</t>
-  </si>
-  <si>
-    <t>Total Hrs</t>
-  </si>
-  <si>
-    <t>Exam Marks</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Subject name</t>
   </si>
   <si>
     <t>10ESL36</t>
@@ -186,16 +165,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -244,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -254,7 +225,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -272,9 +242,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -600,34 +567,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>47</v>
+      <c r="F1" s="2">
+        <v>52</v>
+      </c>
+      <c r="G1" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>44</v>
+      <c r="A2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="C2" s="2">
         <v>25</v>
@@ -646,11 +613,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="C3" s="2">
         <v>25</v>
@@ -669,11 +636,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="C4" s="2">
         <v>25</v>
@@ -692,11 +659,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>34</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="C5" s="2">
         <v>25</v>
@@ -715,11 +682,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>35</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C6" s="2">
         <v>25</v>
@@ -738,11 +705,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>36</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C7" s="2">
         <v>25</v>
@@ -751,21 +718,21 @@
         <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>40</v>
+      <c r="B8" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="C8" s="2">
         <v>25</v>
@@ -784,11 +751,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="C9" s="2">
         <v>25</v>
@@ -797,35 +764,12 @@
         <v>3</v>
       </c>
       <c r="E9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G9" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="2">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2">
-        <v>52</v>
-      </c>
-      <c r="G10" s="2">
         <v>100</v>
       </c>
     </row>
@@ -839,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -855,181 +799,181 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="8">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F3" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
         <v>3</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="F5" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F7" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="F8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="8">
-        <v>6</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="8">
-        <v>7</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="8">
-        <v>8</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>6</v>
       </c>
     </row>
@@ -1064,30 +1008,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1095,10 +1039,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1106,10 +1050,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1117,10 +1061,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1128,10 +1072,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1139,10 +1083,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1150,10 +1094,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1161,10 +1105,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1195,30 +1139,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1226,10 +1170,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1237,10 +1181,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1248,10 +1192,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1259,10 +1203,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1270,10 +1214,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1281,10 +1225,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1292,10 +1236,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1326,30 +1270,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1357,10 +1301,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1368,10 +1312,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1379,10 +1323,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1390,10 +1334,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1401,10 +1345,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1412,10 +1356,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1423,10 +1367,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1457,30 +1401,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1488,10 +1432,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1499,10 +1443,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1510,10 +1454,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1521,10 +1465,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1532,10 +1476,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1543,10 +1487,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1554,10 +1498,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1588,30 +1532,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1619,10 +1563,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1630,10 +1574,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1641,10 +1585,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1652,10 +1596,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1663,10 +1607,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1674,10 +1618,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1685,10 +1629,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1719,30 +1663,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1750,10 +1694,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1761,10 +1705,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1772,10 +1716,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1783,10 +1727,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1794,10 +1738,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1805,10 +1749,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1816,10 +1760,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1850,30 +1794,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1881,10 +1825,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1892,10 +1836,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1903,10 +1847,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1914,10 +1858,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1925,10 +1869,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1936,10 +1880,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1947,10 +1891,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>8</v>

--- a/cis-util/data/subjects.xlsx
+++ b/cis-util/data/subjects.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3855" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15350" windowHeight="3860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -16,21 +16,20 @@
     <sheet name="10EC45" sheetId="14" r:id="rId7"/>
     <sheet name="10EC46" sheetId="15" r:id="rId8"/>
     <sheet name="10ESL47" sheetId="16" r:id="rId9"/>
-    <sheet name="10ECL48" sheetId="17" r:id="rId10"/>
-    <sheet name="10ES32" sheetId="3" r:id="rId11"/>
-    <sheet name="10ES33" sheetId="4" r:id="rId12"/>
-    <sheet name="10ES34" sheetId="5" r:id="rId13"/>
-    <sheet name="10ES35" sheetId="6" r:id="rId14"/>
-    <sheet name="10ES36" sheetId="7" r:id="rId15"/>
-    <sheet name="10ESL37" sheetId="8" r:id="rId16"/>
-    <sheet name="10ESL38" sheetId="9" r:id="rId17"/>
+    <sheet name="10ES32" sheetId="3" r:id="rId10"/>
+    <sheet name="10ES33" sheetId="4" r:id="rId11"/>
+    <sheet name="10ES34" sheetId="5" r:id="rId12"/>
+    <sheet name="10ES35" sheetId="6" r:id="rId13"/>
+    <sheet name="10ES36" sheetId="7" r:id="rId14"/>
+    <sheet name="10ESL37" sheetId="8" r:id="rId15"/>
+    <sheet name="10ESL38" sheetId="9" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="288">
   <si>
     <t>ENGINEERING MATHEMATICS – III</t>
   </si>
@@ -1088,20 +1087,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Highlights of Procedures, tasks, and Functions, Procedures and tasks, Functions.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>Why Mixed-Type Description? VHDL User- Defined Types, VHDL Packages, Mixed-Type Description examples</t>
     </r>
   </si>
@@ -1341,16 +1326,70 @@
     <t>10ESL47</t>
   </si>
   <si>
-    <t>Write HDL code to realize all the logic gates</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
+    <t>MICROCONTROLLER</t>
+  </si>
+  <si>
+    <t>CONTROL SYSTEMS</t>
+  </si>
+  <si>
+    <t>SIGNALS AND SYSTEMS</t>
+  </si>
+  <si>
+    <t>HDL</t>
+  </si>
+  <si>
+    <t>LINEAR INTEGRATED CIRCUIT APPLICATIONS</t>
+  </si>
+  <si>
+    <t>MICROCONTROLLER LAB</t>
+  </si>
+  <si>
+    <t>HDL LAB</t>
+  </si>
+  <si>
+    <t>Data –Flow Descriptions</t>
+  </si>
+  <si>
+    <t>Behavioral Descriptions</t>
+  </si>
+  <si>
+    <t>Structural Descriptions</t>
+  </si>
+  <si>
+    <t>Procedures, Tasks, and Functions</t>
+  </si>
+  <si>
+    <t>Mixed –Type Descriptions</t>
+  </si>
+  <si>
+    <t>Mixed –Language Descriptions</t>
+  </si>
+  <si>
+    <t>Synthesis Basics</t>
+  </si>
+  <si>
+    <t>Operational Amplifier Fundamentals</t>
+  </si>
+  <si>
+    <t>Op-Amps frequency response and compensation</t>
+  </si>
+  <si>
+    <t>Voltage Regulators</t>
+  </si>
+  <si>
+    <t>Non-linear circuit applications</t>
+  </si>
+  <si>
+    <t>More applications</t>
+  </si>
+  <si>
+    <t>OP-AMP Applications</t>
+  </si>
+  <si>
+    <t>Code conversion:BCD – ASCII; ASCII – Decimal; Decimal - ASCII; HEX - Decimal and Decimal - HEX .</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -1360,264 +1399,15 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Write a HDL program for the following combinational designs  a. 2 to 4 decoder  b. 8 to 3 (encoder without priority &amp; with priority)  c. 8 to 1 multiplexer   d. 4 bit binary to gray converter
-e. Multiplexer, de-multiplexer, comparator</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Write a HDL code to describe the functions of a Full Adder Using three modeling styles.</t>
-    </r>
-  </si>
-  <si>
-    <t>Write a model for 32 bit ALU using the schematic diagram shown below A (31:0)	B (31:0)</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ALU should use combinational logic to calculate an output based on the four bit op-code input.</t>
-    </r>
-  </si>
-  <si>
-    <t>ALU should pass the result to the out bus when enable line in high, and tri-state the out bus when the enable line is low</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ALU should decode the 4 bit op-code according to the given in example below.</t>
-    </r>
-  </si>
-  <si>
-    <t>OPCODE</t>
-  </si>
-  <si>
-    <t>ALU OPERATION</t>
-  </si>
-  <si>
-    <t>A + B</t>
-  </si>
-  <si>
-    <t>A – B</t>
-  </si>
-  <si>
-    <t>A Complement</t>
-  </si>
-  <si>
-    <t>A * B</t>
-  </si>
-  <si>
-    <t>A AND B</t>
-  </si>
-  <si>
-    <t>A OR B</t>
-  </si>
-  <si>
-    <t>A NAND B</t>
-  </si>
-  <si>
-    <t>A XOR B</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Develop the HDL code for the following flip-flops, SR, D, JK, T.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Design 4 bit binary, BCD counters (Synchronous reset and Asynchronous reset) and “any sequence” counters</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Write HDL code to display messages on the given seven segment display and LCD and accepting Hex key pad input data.</t>
-    </r>
-  </si>
-  <si>
-    <t>Interfacing Programs</t>
-  </si>
-  <si>
-    <t>2.       Write HDL code to control speed, direction of DC and Stepper motor.</t>
-  </si>
-  <si>
-    <t>3.       Write HDL code to accept 8 channel Analog signal, Temperature sensors and display the data on LCD panel or Seven segment display.</t>
-  </si>
-  <si>
-    <t>4.       Write HDL code to generate different waveforms (Sine, Square,  Triangle, Ramp etc.,) using DAC change the frequency and amplitude.</t>
-  </si>
-  <si>
-    <t>5.       Write HDL code to simulate Elevator operations</t>
-  </si>
-  <si>
-    <t>6. Write HDL code to control external lights using relays.</t>
-  </si>
-  <si>
-    <t>MICROCONTROLLER</t>
-  </si>
-  <si>
-    <t>CONTROL SYSTEMS</t>
-  </si>
-  <si>
-    <t>SIGNALS AND SYSTEMS</t>
-  </si>
-  <si>
-    <t>HDL</t>
-  </si>
-  <si>
-    <t>LINEAR INTEGRATED CIRCUIT APPLICATIONS</t>
-  </si>
-  <si>
-    <t>MICROCONTROLLER LAB</t>
-  </si>
-  <si>
-    <t>HDL LAB</t>
-  </si>
-  <si>
-    <t>Data –Flow Descriptions</t>
-  </si>
-  <si>
-    <t>Behavioral Descriptions</t>
-  </si>
-  <si>
-    <t>Structural Descriptions</t>
-  </si>
-  <si>
-    <t>Procedures, Tasks, and Functions</t>
-  </si>
-  <si>
-    <t>Mixed –Type Descriptions</t>
-  </si>
-  <si>
-    <t>Mixed –Language Descriptions</t>
-  </si>
-  <si>
-    <t>Synthesis Basics</t>
-  </si>
-  <si>
-    <t>Advanced HDL Descriptions: File Processing, Examples of File Processing</t>
-  </si>
-  <si>
-    <t>Operational Amplifier Fundamentals</t>
-  </si>
-  <si>
-    <t>Op-Amps frequency response and compensation</t>
-  </si>
-  <si>
-    <t>Voltage Regulators</t>
-  </si>
-  <si>
-    <t>Non-linear circuit applications</t>
-  </si>
-  <si>
-    <t>More applications</t>
-  </si>
-  <si>
-    <t>OP-AMP Applications</t>
-  </si>
-  <si>
-    <t>Code conversion:BCD – ASCII; ASCII – Decimal; Decimal - ASCII; HEX - Decimal and Decimal - HEX .</t>
+      <t>Highlights of Procedures, tasks, and Functions, Procedures and tasks, Functions.
+Advanced HDL Descriptions: File Processing, Examples of File Processing</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1747,7 +1537,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1772,30 +1562,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1809,7 +1575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1875,23 +1641,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2014,23 +1768,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2066,23 +1803,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2262,23 +1982,23 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="88.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="88.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -2301,7 +2021,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -2324,7 +2044,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>29</v>
       </c>
@@ -2347,7 +2067,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
@@ -2370,7 +2090,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>33</v>
       </c>
@@ -2393,7 +2113,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>37</v>
       </c>
@@ -2416,7 +2136,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
@@ -2439,7 +2159,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>39</v>
       </c>
@@ -2462,7 +2182,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>42</v>
       </c>
@@ -2485,7 +2205,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>43</v>
       </c>
@@ -2508,164 +2228,164 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11" s="26" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="26">
         <v>25</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="26">
         <v>3</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="26">
         <v>4</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="26">
         <v>52</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="26">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" s="26" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="26">
         <v>25</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="26">
         <v>3</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="26">
         <v>4</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="26">
         <v>52</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="26">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="B13" s="26" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="26">
         <v>25</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="26">
         <v>3</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="26">
         <v>4</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="26">
         <v>52</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="26">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="B14" s="26" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="26">
         <v>25</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="26">
         <v>3</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="26">
         <v>4</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="26">
         <v>52</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="26">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="C15" s="27">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="26">
         <v>25</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="26">
         <v>3</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="26">
         <v>4</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="26">
         <v>52</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="26">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="C16" s="27">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="C16" s="26">
         <v>25</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="26">
         <v>3</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="26">
         <v>3</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="26">
         <v>0</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="26">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="C17" s="27">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" s="26">
         <v>25</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="26">
         <v>3</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="26">
         <v>3</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="26">
         <v>0</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="26">
         <v>50</v>
       </c>
     </row>
@@ -2677,332 +2397,226 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.81640625" customWidth="1"/>
+    <col min="5" max="5" width="50.26953125" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="F2" s="28"/>
-    </row>
-    <row r="3" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="65.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="F3" s="28"/>
-    </row>
-    <row r="4" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="65.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="F4" s="28"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="F5" s="28"/>
-    </row>
-    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>265</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="F6" s="28"/>
-    </row>
-    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>265</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="F7" s="28"/>
-    </row>
-    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="F8" s="28"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>265</v>
-      </c>
-      <c r="E10" s="25">
-        <v>1</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E11" s="25">
-        <v>2</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12" s="25">
-        <v>3</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E13" s="25">
-        <v>4</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E14" s="25">
-        <v>5</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E15" s="25">
-        <v>6</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E16" s="25">
-        <v>7</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E17" s="25">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="F17" s="25" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="F18" s="30"/>
-    </row>
-    <row r="19" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="F19" s="30"/>
-    </row>
-    <row r="20" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>287</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="F20" s="29"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>287</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="F21" s="29"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>287</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="F22" s="29"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>287</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="F23" s="29"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>287</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="F24" s="29"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>287</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="F25" s="29"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E27" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E28" s="17"/>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.81640625" customWidth="1"/>
+    <col min="5" max="5" width="53.1796875" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -3022,9 +2636,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -3033,15 +2647,18 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -3050,15 +2667,18 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="102.75" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -3067,15 +2687,18 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -3084,15 +2707,18 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="104.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -3101,15 +2727,18 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="65.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -3118,15 +2747,18 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -3135,15 +2767,18 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="F8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -3152,10 +2787,23 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>67</v>
+        <v>83</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E10" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E11" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3165,23 +2813,23 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" customWidth="1"/>
+    <col min="5" max="5" width="54" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -3201,9 +2849,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -3212,15 +2860,18 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="F2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -3229,15 +2880,18 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -3246,15 +2900,18 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -3263,15 +2920,18 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="141" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -3280,15 +2940,18 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -3297,15 +2960,18 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -3314,15 +2980,18 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -3331,24 +3000,18 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E10" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E11" s="14" t="s">
-        <v>51</v>
+        <v>98</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3360,17 +3023,17 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="54" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.54296875" customWidth="1"/>
+    <col min="5" max="5" width="57.81640625" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -3390,9 +3053,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="65.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -3401,15 +3064,18 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -3418,15 +3084,18 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -3435,15 +3104,18 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -3452,15 +3124,18 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -3469,15 +3144,18 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -3485,16 +3163,19 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>95</v>
+      <c r="D7" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="F7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -3503,15 +3184,18 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="F8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -3519,38 +3203,40 @@
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>98</v>
+      <c r="D9" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>99</v>
+        <v>114</v>
+      </c>
+      <c r="F9" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
-    <col min="5" max="5" width="57.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.26953125" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -3570,141 +3256,177 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
+    <row r="2" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="18">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
+      <c r="D2" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="18">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
+      <c r="D3" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="18">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
+      <c r="D4" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="18">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D5" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C6" s="18">
+        <v>5</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="18">
         <v>6</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D7" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="18">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D8" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="18">
         <v>8</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>114</v>
-      </c>
+      <c r="D9" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3713,23 +3435,23 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" customWidth="1"/>
-    <col min="5" max="5" width="40" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -3749,161 +3471,256 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="18">
+    <row r="2" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="18">
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="18">
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="65.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="18">
+      <c r="D4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="D5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="18">
-        <v>5</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="18" t="s">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="18" t="s">
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="18" t="s">
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10" s="18"/>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="47" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E14" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E17" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E21" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E22" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3912,23 +3729,23 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -3948,12 +3765,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3962,15 +3779,18 @@
         <v>135</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="F2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3979,15 +3799,18 @@
         <v>135</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3996,15 +3819,18 @@
         <v>135</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="F4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -4012,16 +3838,19 @@
       <c r="D5" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="E5" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -4030,15 +3859,18 @@
         <v>135</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -4046,16 +3878,19 @@
       <c r="D7" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="E7" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -4064,15 +3899,18 @@
         <v>135</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="F8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -4080,11 +3918,20 @@
       <c r="D9" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="E9" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
       <c r="C10">
         <v>9</v>
       </c>
@@ -4092,21 +3939,39 @@
         <v>135</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="F10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>135</v>
+      </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>135</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="E11" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
       <c r="C12">
         <v>11</v>
       </c>
@@ -4114,10 +3979,19 @@
         <v>135</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>135</v>
+      </c>
       <c r="C13">
         <v>12</v>
       </c>
@@ -4125,265 +3999,10 @@
         <v>135</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E14" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="17" t="s">
         <v>157</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4394,18 +4013,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1796875" customWidth="1"/>
+    <col min="3" max="3" width="4.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.453125" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -4425,7 +4049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -4445,7 +4069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -4465,7 +4089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="104.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -4485,7 +4109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="65.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -4505,7 +4129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="104.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -4525,7 +4149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -4545,7 +4169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="65.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -4565,7 +4189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -4585,11 +4209,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E11" s="22"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E10" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4600,17 +4221,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -4630,7 +4251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="179.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="117.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>180</v>
       </c>
@@ -4646,70 +4267,94 @@
       <c r="E2" s="17" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="91.5" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
         <v>182</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>185</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>186</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>189</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="65.5" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>191</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="143.5" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>192</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="179.25" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="182.5" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>194</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E12" s="17"/>
     </row>
   </sheetData>
@@ -4721,17 +4366,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
-    <col min="5" max="5" width="53.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.1796875" customWidth="1"/>
+    <col min="5" max="5" width="53.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4751,7 +4396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="65.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>212</v>
       </c>
@@ -4767,8 +4412,11 @@
       <c r="E2" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>212</v>
       </c>
@@ -4784,8 +4432,11 @@
       <c r="E3" s="17" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>212</v>
       </c>
@@ -4801,8 +4452,11 @@
       <c r="E4" s="17" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>212</v>
       </c>
@@ -4818,8 +4472,11 @@
       <c r="E5" s="17" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>212</v>
       </c>
@@ -4835,8 +4492,11 @@
       <c r="E6" s="17" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>212</v>
       </c>
@@ -4852,8 +4512,11 @@
       <c r="E7" s="17" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>212</v>
       </c>
@@ -4869,8 +4532,11 @@
       <c r="E8" s="17" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>212</v>
       </c>
@@ -4886,8 +4552,11 @@
       <c r="E9" s="17" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E10" s="17" t="s">
         <v>51</v>
       </c>
@@ -4902,16 +4571,16 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="50.7109375" customWidth="1"/>
+    <col min="5" max="5" width="50.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4931,7 +4600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>230</v>
       </c>
@@ -4947,8 +4616,11 @@
       <c r="E2" s="17" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>230</v>
       </c>
@@ -4964,8 +4636,11 @@
       <c r="E3" s="17" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>230</v>
       </c>
@@ -4981,8 +4656,11 @@
       <c r="E4" s="17" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>230</v>
       </c>
@@ -4998,8 +4676,11 @@
       <c r="E5" s="17" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>230</v>
       </c>
@@ -5015,8 +4696,11 @@
       <c r="E6" s="17" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>230</v>
       </c>
@@ -5032,8 +4716,11 @@
       <c r="E7" s="17" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>230</v>
       </c>
@@ -5049,8 +4736,11 @@
       <c r="E8" s="17" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>230</v>
       </c>
@@ -5066,13 +4756,16 @@
       <c r="E9" s="23" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E10" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E11" s="17" t="s">
         <v>51</v>
       </c>
@@ -5084,23 +4777,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="82.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.1796875" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -5120,7 +4813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -5140,7 +4833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -5160,7 +4853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -5180,7 +4873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -5200,7 +4893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
@@ -5220,7 +4913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
@@ -5240,7 +4933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
@@ -5260,7 +4953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
@@ -5278,12 +4971,6 @@
       </c>
       <c r="F9" s="10">
         <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F10">
-        <f>SUM(F2:F9)</f>
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5293,22 +4980,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -5328,7 +5015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>233</v>
       </c>
@@ -5344,8 +5031,11 @@
       <c r="E2" s="17" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>233</v>
       </c>
@@ -5356,13 +5046,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>233</v>
       </c>
@@ -5373,13 +5066,16 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="56.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>233</v>
       </c>
@@ -5390,13 +5086,16 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>233</v>
       </c>
@@ -5407,18 +5106,36 @@
         <v>5</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="E6" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="E7" s="17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="70.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>233</v>
       </c>
@@ -5426,16 +5143,19 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>233</v>
       </c>
@@ -5443,34 +5163,20 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="E9" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E11" s="17" t="s">
+      <c r="F9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E10" s="17" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5483,16 +5189,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="36.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -5512,119 +5218,143 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="117.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="115.5" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="F2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="104.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="F4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="E5" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="78.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="56.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="F7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="F8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="65.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E10" s="17" t="s">
         <v>51</v>
       </c>
@@ -5638,16 +5368,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="36.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -5667,153 +5397,225 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="F2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="E7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="E8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="E9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="E10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="E11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="E12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="E13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="E14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/cis-util/data/subjects.xlsx
+++ b/cis-util/data/subjects.xlsx
@@ -4013,10 +4013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4208,9 +4208,6 @@
       <c r="F9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E10" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
